--- a/SOO_results/DP1000_room_SwiftVoce_NDBR50_curve2/initial/89/parameters.xlsx
+++ b/SOO_results/DP1000_room_SwiftVoce_NDBR50_curve2/initial/89/parameters.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.3063063063063063</v>
+        <v>0.3332333233323332</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>704.7047047047048</v>
+        <v>545.9745974597461</v>
       </c>
     </row>
     <row r="4">
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.0898898898898899</v>
+        <v>0.03466346634663466</v>
       </c>
     </row>
     <row r="5">
@@ -482,7 +482,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9309309309309309</v>
+        <v>0.9019901990199021</v>
       </c>
     </row>
     <row r="6">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1223.223223223223</v>
+        <v>203.7503750375038</v>
       </c>
     </row>
     <row r="7">
@@ -502,7 +502,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>707.7077077077078</v>
+        <v>480.4680468046805</v>
       </c>
     </row>
     <row r="8">
@@ -512,7 +512,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>136.1361361361361</v>
+        <v>857.3285328532853</v>
       </c>
     </row>
   </sheetData>
